--- a/update-input/ig/StructureDefinition-administration-report.xlsx
+++ b/update-input/ig/StructureDefinition-administration-report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/administration-report</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdministrationReport</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:27:05+00:00</t>
+    <t>2024-03-25T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -703,7 +703,7 @@
     <t>MedicationAdministration.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>MedicationAdministration.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
 </t>
   </si>
   <si>
@@ -916,10 +916,6 @@
     <t>MedicationAdministration.occurence[x]</t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
   </si>
   <si>
@@ -930,6 +926,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1068,7 +1067,7 @@
 </t>
   </si>
   <si>
-    <t>Who or what performed the medication administration</t>
+    <t>Person who administered the medication</t>
   </si>
   <si>
     <t>Indicates who or what performed the medication administration.</t>
@@ -1111,7 +1110,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem)
 </t>
   </si>
   <si>
@@ -1199,7 +1198,7 @@
     <t>MedicationAdministration.dosage.text</t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG</t>
+    <t>Textual dosage instructions</t>
   </si>
   <si>
     <t>Free text dosage can be used for cases where the dosage administered is too complex to code. When coded dosage is present, the free text dosage may still be present for display to humans.@@ -1303,6 +1302,134 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Value of the dose quantity</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit of the dose quantity</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1655,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1674,7 +1801,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4576,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
@@ -4921,13 +5048,13 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4966,14 +5093,14 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>288</v>
@@ -5018,7 +5145,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5036,10 +5163,10 @@
         <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5464,13 +5591,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
@@ -6254,13 +6381,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>75</v>
@@ -6592,7 +6719,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -7046,7 +7173,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -7627,17 +7754,15 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>88</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -7686,7 +7811,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7695,10 +7820,10 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>381</v>
+        <v>157</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7707,22 +7832,22 @@
         <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>158</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7741,16 +7866,16 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7788,19 +7913,19 @@
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>420</v>
+        <v>164</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7812,23 +7937,827 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="M56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7838,7 +8767,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
